--- a/Unstable_Points_Gen.xlsx
+++ b/Unstable_Points_Gen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Rotor Angle</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Predicted Active Power</t>
+  </si>
+  <si>
+    <t>stabilised</t>
   </si>
 </sst>
 </file>
@@ -388,13 +391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E452"/>
+  <dimension ref="A1:F452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,8 +413,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0.9918422262267648</v>
       </c>
@@ -427,8 +433,11 @@
       <c r="E2">
         <v>81.89256337148129</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>4.012295260247768</v>
       </c>
@@ -444,8 +453,11 @@
       <c r="E3">
         <v>-81343.04520493138</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1.101611704595172</v>
       </c>
@@ -461,8 +473,11 @@
       <c r="E4">
         <v>80.58026110989033</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1.098730099899043</v>
       </c>
@@ -478,8 +493,11 @@
       <c r="E5">
         <v>56.27541450274168</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0.9906758680797978</v>
       </c>
@@ -495,8 +513,11 @@
       <c r="E6">
         <v>45.51674336058079</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1.030560875102089</v>
       </c>
@@ -512,8 +533,11 @@
       <c r="E7">
         <v>84.38771357995449</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>3.868291894512794</v>
       </c>
@@ -529,8 +553,11 @@
       <c r="E8">
         <v>-68150.0078905164</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>0.981329046226989</v>
       </c>
@@ -546,8 +573,11 @@
       <c r="E9">
         <v>79.74004524064242</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1.109028562416108</v>
       </c>
@@ -563,8 +593,11 @@
       <c r="E10">
         <v>76.93807990712105</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>0.957454738641534</v>
       </c>
@@ -580,8 +613,11 @@
       <c r="E11">
         <v>64.8790319175738</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>0.9677866354025544</v>
       </c>
@@ -597,8 +633,11 @@
       <c r="E12">
         <v>87.67772726950227</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1.055578993020561</v>
       </c>
@@ -614,8 +653,11 @@
       <c r="E13">
         <v>67.28454643351017</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>0.9557982170527538</v>
       </c>
@@ -631,8 +673,11 @@
       <c r="E14">
         <v>73.72102029857217</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1.053501345095285</v>
       </c>
@@ -648,8 +693,11 @@
       <c r="E15">
         <v>109.9184243143815</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>0.998747620286224</v>
       </c>
@@ -665,8 +713,11 @@
       <c r="E16">
         <v>82.9252491430658</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>0.9536496451151537</v>
       </c>
@@ -682,8 +733,11 @@
       <c r="E17">
         <v>66.46544478324233</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.080353423237653</v>
       </c>
@@ -699,8 +753,11 @@
       <c r="E18">
         <v>62.50225173545061</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>121.6946739439988</v>
       </c>
@@ -716,8 +773,11 @@
       <c r="E19">
         <v>-137788631809.315</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.073666981038504</v>
       </c>
@@ -733,8 +793,11 @@
       <c r="E20">
         <v>90.86530522865235</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>107.4179195123751</v>
       </c>
@@ -750,8 +813,11 @@
       <c r="E21">
         <v>-83394037699.565</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>116.830658213038</v>
       </c>
@@ -767,8 +833,11 @@
       <c r="E22">
         <v>-116948456045.5025</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1.030819965389701</v>
       </c>
@@ -784,8 +853,11 @@
       <c r="E23">
         <v>59.26782535624682</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1.037659846705989</v>
       </c>
@@ -801,8 +873,11 @@
       <c r="E24">
         <v>76.51072992992579</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>181.8217594632589</v>
       </c>
@@ -818,8 +893,11 @@
       <c r="E25">
         <v>-691489580784.8151</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>81.99365451943414</v>
       </c>
@@ -835,8 +913,11 @@
       <c r="E26">
         <v>-28100476360.95563</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>230.9316602280109</v>
       </c>
@@ -852,8 +933,11 @@
       <c r="E27">
         <v>-1804741239050.315</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>0.9580267133186453</v>
       </c>
@@ -869,8 +953,11 @@
       <c r="E28">
         <v>109.6925784745532</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1.123430857124978</v>
       </c>
@@ -886,8 +973,11 @@
       <c r="E29">
         <v>44.18614778530775</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1.059040947307253</v>
       </c>
@@ -903,8 +993,11 @@
       <c r="E30">
         <v>89.88143787396132</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>0.9951753720977676</v>
       </c>
@@ -920,8 +1013,11 @@
       <c r="E31">
         <v>75.76884561640202</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>0.9977059360690627</v>
       </c>
@@ -937,8 +1033,11 @@
       <c r="E32">
         <v>58.51307225090443</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>1.088571995666778</v>
       </c>
@@ -954,8 +1053,11 @@
       <c r="E33">
         <v>116.1812381805199</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>42.85251623874223</v>
       </c>
@@ -971,8 +1073,11 @@
       <c r="E34">
         <v>-2035207780.368717</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>0.9533638337345707</v>
       </c>
@@ -988,8 +1093,11 @@
       <c r="E35">
         <v>102.4201133200246</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>144.7354880557783</v>
       </c>
@@ -1005,8 +1113,11 @@
       <c r="E36">
         <v>-276563392372.69</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>1.132244449699272</v>
       </c>
@@ -1022,8 +1133,11 @@
       <c r="E37">
         <v>59.69927596163927</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>4.271984306482665</v>
       </c>
@@ -1039,8 +1153,11 @@
       <c r="E38">
         <v>-108795.5935581266</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>0.9567822362764673</v>
       </c>
@@ -1056,8 +1173,11 @@
       <c r="E39">
         <v>71.55309794333755</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>0.8846860155746015</v>
       </c>
@@ -1073,8 +1193,11 @@
       <c r="E40">
         <v>93.66068427872835</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>1.067745391705216</v>
       </c>
@@ -1090,8 +1213,11 @@
       <c r="E41">
         <v>95.88720165801226</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>1.120883437656261</v>
       </c>
@@ -1107,8 +1233,11 @@
       <c r="E42">
         <v>49.9769612984079</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>99.15307272104974</v>
       </c>
@@ -1124,8 +1253,11 @@
       <c r="E43">
         <v>-60421476341.06501</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>0.9769358645256339</v>
       </c>
@@ -1141,8 +1273,11 @@
       <c r="E44">
         <v>116.4355954290646</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>1.176662865192848</v>
       </c>
@@ -1158,8 +1293,11 @@
       <c r="E45">
         <v>20.83669294279991</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>0.875264932148994</v>
       </c>
@@ -1175,8 +1313,11 @@
       <c r="E46">
         <v>97.72159040954887</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>1.026451696359857</v>
       </c>
@@ -1192,8 +1333,11 @@
       <c r="E47">
         <v>74.5507171885389</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>69.32661768097186</v>
       </c>
@@ -1209,8 +1353,11 @@
       <c r="E48">
         <v>-14284594428.06501</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>1.03612084810149</v>
       </c>
@@ -1226,8 +1373,11 @@
       <c r="E49">
         <v>127.3349859179276</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>1.038291666503733</v>
       </c>
@@ -1243,8 +1393,11 @@
       <c r="E50">
         <v>84.43067467820822</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>1.060554462426661</v>
       </c>
@@ -1260,8 +1413,11 @@
       <c r="E51">
         <v>61.06214238566338</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>1.097932882637773</v>
       </c>
@@ -1277,8 +1433,11 @@
       <c r="E52">
         <v>72.01068310302674</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>0.9708817324751919</v>
       </c>
@@ -1294,8 +1453,11 @@
       <c r="E53">
         <v>75.00700771299182</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>1.039361845536348</v>
       </c>
@@ -1311,8 +1473,11 @@
       <c r="E54">
         <v>119.1266034082788</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>1.078125837814937</v>
       </c>
@@ -1328,8 +1493,11 @@
       <c r="E55">
         <v>66.32700123501002</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>1.007499835003812</v>
       </c>
@@ -1345,8 +1513,11 @@
       <c r="E56">
         <v>78.00884842735707</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>4.302288819921657</v>
       </c>
@@ -1362,8 +1533,11 @@
       <c r="E57">
         <v>-112691.7779572545</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>1.022574370394385</v>
       </c>
@@ -1379,8 +1553,11 @@
       <c r="E58">
         <v>88.35806758564888</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>1.118136791605806</v>
       </c>
@@ -1396,8 +1573,11 @@
       <c r="E59">
         <v>65.34193216127335</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>70.51288271924253</v>
       </c>
@@ -1413,8 +1593,11 @@
       <c r="E60">
         <v>-15283396421.51813</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>0.9922431058128538</v>
       </c>
@@ -1430,8 +1613,11 @@
       <c r="E61">
         <v>81.64752226185976</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>4.544873838679763</v>
       </c>
@@ -1447,8 +1633,11 @@
       <c r="E62">
         <v>-147399.7528148233</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>183.098619541872</v>
       </c>
@@ -1464,8 +1653,11 @@
       <c r="E63">
         <v>-711110946740.3151</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>1.099020857576448</v>
       </c>
@@ -1481,8 +1673,11 @@
       <c r="E64">
         <v>76.40013371271073</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>140.1750460825079</v>
       </c>
@@ -1498,8 +1693,11 @@
       <c r="E65">
         <v>-243211419489.065</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>1.004414611906377</v>
       </c>
@@ -1515,8 +1713,11 @@
       <c r="E66">
         <v>91.42387282711445</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>31.02982984643883</v>
       </c>
@@ -1532,8 +1733,11 @@
       <c r="E67">
         <v>-546507787.5855143</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>1.014110072167345</v>
       </c>
@@ -1549,8 +1753,11 @@
       <c r="E68">
         <v>45.49485150587736</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>60.45451295754391</v>
       </c>
@@ -1566,8 +1773,11 @@
       <c r="E69">
         <v>-8206068147.104069</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>1.084542695362041</v>
       </c>
@@ -1583,8 +1793,11 @@
       <c r="E70">
         <v>60.06920964878975</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>110.0335971747447</v>
       </c>
@@ -1600,8 +1813,11 @@
       <c r="E71">
         <v>-91883239049.565</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3.472682671951645</v>
       </c>
@@ -1617,8 +1833,11 @@
       <c r="E72">
         <v>-40046.3754976331</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>1.010712218686964</v>
       </c>
@@ -1634,8 +1853,11 @@
       <c r="E73">
         <v>72.46988841009318</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>0.9844514807935987</v>
       </c>
@@ -1651,8 +1873,11 @@
       <c r="E74">
         <v>71.97359463808118</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>1.152204965104907</v>
       </c>
@@ -1668,8 +1893,11 @@
       <c r="E75">
         <v>49.53690264237105</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>53.79922318587143</v>
       </c>
@@ -1685,8 +1913,11 @@
       <c r="E76">
         <v>-5120567324.295475</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>1.008846334438564</v>
       </c>
@@ -1702,8 +1933,11 @@
       <c r="E77">
         <v>85.14922930163323</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>1.093499978191247</v>
       </c>
@@ -1719,8 +1953,11 @@
       <c r="E78">
         <v>74.75200527024447</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>32.2489499486836</v>
       </c>
@@ -1736,8 +1973,11 @@
       <c r="E79">
         <v>-639912467.4678385</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4.459926195729196</v>
       </c>
@@ -1753,8 +1993,11 @@
       <c r="E80">
         <v>-134499.030206257</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>1.031259667286925</v>
       </c>
@@ -1770,8 +2013,11 @@
       <c r="E81">
         <v>58.05371890825211</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>0.9801802227439746</v>
       </c>
@@ -1787,8 +2033,11 @@
       <c r="E82">
         <v>51.16042752799569</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>1.05090552158144</v>
       </c>
@@ -1804,8 +2053,11 @@
       <c r="E83">
         <v>69.99351399254977</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>0.9617509164885334</v>
       </c>
@@ -1821,8 +2073,11 @@
       <c r="E84">
         <v>49.99235407498657</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>1.098325365981121</v>
       </c>
@@ -1838,8 +2093,11 @@
       <c r="E85">
         <v>39.95270030808626</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>185.0885685422659</v>
       </c>
@@ -1855,8 +2113,11 @@
       <c r="E86">
         <v>-742595647998.8151</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>1.016663788530652</v>
       </c>
@@ -1872,8 +2133,11 @@
       <c r="E87">
         <v>48.56846131992518</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>1.075243835653675</v>
       </c>
@@ -1889,8 +2153,11 @@
       <c r="E88">
         <v>77.32314946365534</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>112.0293181496677</v>
       </c>
@@ -1906,8 +2173,11 @@
       <c r="E89">
         <v>-98747335720.44</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>1.133822628302667</v>
       </c>
@@ -1923,8 +2193,11 @@
       <c r="E90">
         <v>60.48372199994503</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>0.9287122085357957</v>
       </c>
@@ -1940,8 +2213,11 @@
       <c r="E91">
         <v>95.43055448171674</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>1.180199008962887</v>
       </c>
@@ -1957,8 +2233,11 @@
       <c r="E92">
         <v>60.83355591309248</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>1.061732397222841</v>
       </c>
@@ -1974,8 +2253,11 @@
       <c r="E93">
         <v>52.12001867455422</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>1.056508545409997</v>
       </c>
@@ -1991,8 +2273,11 @@
       <c r="E94">
         <v>76.49547450107514</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>0.9675695308110974</v>
       </c>
@@ -2008,8 +2293,11 @@
       <c r="E95">
         <v>80.36934866991817</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>64.87686298058404</v>
       </c>
@@ -2025,8 +2313,11 @@
       <c r="E96">
         <v>-10925384380.31501</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>0.9769990270172393</v>
       </c>
@@ -2042,8 +2333,11 @@
       <c r="E97">
         <v>78.32443858546196</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>0.9728424890111462</v>
       </c>
@@ -2059,8 +2353,11 @@
       <c r="E98">
         <v>58.27188574013292</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>1.079299743991699</v>
       </c>
@@ -2076,8 +2373,11 @@
       <c r="E99">
         <v>52.09709857267319</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>1.063480014488135</v>
       </c>
@@ -2093,8 +2393,11 @@
       <c r="E100">
         <v>107.6143035800475</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>1.064849572600167</v>
       </c>
@@ -2110,8 +2413,11 @@
       <c r="E101">
         <v>75.86116751891552</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>190.7280318995396</v>
       </c>
@@ -2127,8 +2433,11 @@
       <c r="E102">
         <v>-837722465652.8151</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>1.137729297907896</v>
       </c>
@@ -2144,8 +2453,11 @@
       <c r="E103">
         <v>64.66271699828087</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>0.9904658116408029</v>
       </c>
@@ -2161,8 +2473,11 @@
       <c r="E104">
         <v>73.5558049739617</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>115.3005345306881</v>
       </c>
@@ -2178,8 +2493,11 @@
       <c r="E105">
         <v>-110884256175.565</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>1.088614500279413</v>
       </c>
@@ -2195,8 +2513,11 @@
       <c r="E106">
         <v>85.92644184690892</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>20.96401035572943</v>
       </c>
@@ -2212,8 +2533,11 @@
       <c r="E107">
         <v>-109286311.8607829</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>136.1195182129742</v>
       </c>
@@ -2229,8 +2553,11 @@
       <c r="E108">
         <v>-216140186018.44</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>0.9831693880186461</v>
       </c>
@@ -2246,8 +2573,11 @@
       <c r="E109">
         <v>47.99674446743904</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>115.0159936543779</v>
       </c>
@@ -2263,8 +2593,11 @@
       <c r="E110">
         <v>-109783134090.8775</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>0.9853023946669122</v>
       </c>
@@ -2280,8 +2613,11 @@
       <c r="E111">
         <v>84.13294210148035</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>0.9330446619388013</v>
       </c>
@@ -2297,8 +2633,11 @@
       <c r="E112">
         <v>60.79501337421118</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>125.7952266542025</v>
       </c>
@@ -2314,8 +2653,11 @@
       <c r="E113">
         <v>-157395337800.69</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>0.9838929013150145</v>
       </c>
@@ -2331,8 +2673,11 @@
       <c r="E114">
         <v>91.46316414189516</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>0.9156834260985249</v>
       </c>
@@ -2348,8 +2693,11 @@
       <c r="E115">
         <v>90.99596622449337</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>0.9992054250489488</v>
       </c>
@@ -2365,8 +2713,11 @@
       <c r="E116">
         <v>69.32262845200478</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>132.888633359027</v>
       </c>
@@ -2382,8 +2733,11 @@
       <c r="E117">
         <v>-196231471515.44</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>64.944566261679</v>
       </c>
@@ -2399,8 +2753,11 @@
       <c r="E118">
         <v>-10965025889.65094</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>1.086350723482105</v>
       </c>
@@ -2416,8 +2773,11 @@
       <c r="E119">
         <v>57.63028643888413</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>109.9610863677759</v>
       </c>
@@ -2433,8 +2793,11 @@
       <c r="E120">
         <v>-91631891531.0025</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>0.9618740458928983</v>
       </c>
@@ -2450,8 +2813,11 @@
       <c r="E121">
         <v>59.36906157669603</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>1.010605998683253</v>
       </c>
@@ -2467,8 +2833,11 @@
       <c r="E122">
         <v>76.99967845392405</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>1.092013074901752</v>
       </c>
@@ -2484,8 +2853,11 @@
       <c r="E123">
         <v>95.81349530679165</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>1.023712870312627</v>
       </c>
@@ -2501,8 +2873,11 @@
       <c r="E124">
         <v>88.85663154584347</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>0.9877785089174789</v>
       </c>
@@ -2518,8 +2893,11 @@
       <c r="E125">
         <v>90.11864979055701</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>0.9117950098180181</v>
       </c>
@@ -2535,8 +2913,11 @@
       <c r="E126">
         <v>85.70943181079804</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>0.9619191616946661</v>
       </c>
@@ -2552,8 +2933,11 @@
       <c r="E127">
         <v>83.75832020726978</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>4.461637314509616</v>
       </c>
@@ -2569,8 +2953,11 @@
       <c r="E128">
         <v>-134667.7094722329</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>1.106369663268864</v>
       </c>
@@ -2586,8 +2973,11 @@
       <c r="E129">
         <v>74.16989811372935</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>1.044722787049611</v>
       </c>
@@ -2603,8 +2993,11 @@
       <c r="E130">
         <v>68.98680160057722</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>62.00703570304694</v>
       </c>
@@ -2620,8 +3013,11 @@
       <c r="E131">
         <v>-9093884327.432194</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>0.9205312318351844</v>
       </c>
@@ -2637,8 +3033,11 @@
       <c r="E132">
         <v>94.52012519401489</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>177.2927258480348</v>
       </c>
@@ -2654,8 +3053,11 @@
       <c r="E133">
         <v>-624783027706.5651</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>0.926844576215391</v>
       </c>
@@ -2671,8 +3073,11 @@
       <c r="E134">
         <v>87.04057212409555</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>0.9179574431910353</v>
       </c>
@@ -2688,8 +3093,11 @@
       <c r="E135">
         <v>112.6579840057808</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>0.9438935896388887</v>
       </c>
@@ -2705,8 +3113,11 @@
       <c r="E136">
         <v>78.47799551350056</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>1.113654055807444</v>
       </c>
@@ -2722,8 +3133,11 @@
       <c r="E137">
         <v>41.72650290143667</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>1.05209511015385</v>
       </c>
@@ -2739,8 +3153,11 @@
       <c r="E138">
         <v>76.43071808529078</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>1.039747632925758</v>
       </c>
@@ -2756,8 +3173,11 @@
       <c r="E139">
         <v>81.85617370021521</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>1.111348484519423</v>
       </c>
@@ -2773,8 +3193,11 @@
       <c r="E140">
         <v>88.39954481136976</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>155.0372241872807</v>
       </c>
@@ -2790,8 +3213,11 @@
       <c r="E141">
         <v>-364677928885.065</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>1.120791427744959</v>
       </c>
@@ -2807,8 +3233,11 @@
       <c r="E142">
         <v>52.03463473779141</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>1.187009692371049</v>
       </c>
@@ -2824,8 +3253,11 @@
       <c r="E143">
         <v>36.72006422144352</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>0.9763130586505046</v>
       </c>
@@ -2841,8 +3273,11 @@
       <c r="E144">
         <v>88.54200107094823</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>0.9945427675913483</v>
       </c>
@@ -2858,8 +3293,11 @@
       <c r="E145">
         <v>62.79965238881289</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>64.70999127720286</v>
       </c>
@@ -2875,8 +3313,11 @@
       <c r="E146">
         <v>-10806102470.48688</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>111.1964883073838</v>
       </c>
@@ -2892,8 +3333,11 @@
       <c r="E147">
         <v>-95864655602.6275</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>0.9857450235951035</v>
       </c>
@@ -2909,8 +3353,11 @@
       <c r="E148">
         <v>100.8414120027143</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>0.9925672196299359</v>
       </c>
@@ -2926,8 +3373,11 @@
       <c r="E149">
         <v>79.90228733283459</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>4.022532814762883</v>
       </c>
@@ -2943,8 +3393,11 @@
       <c r="E150">
         <v>-81784.6921952306</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>0.9541710872835443</v>
       </c>
@@ -2960,8 +3413,11 @@
       <c r="E151">
         <v>84.06213465568601</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>1.064983742340729</v>
       </c>
@@ -2977,8 +3433,11 @@
       <c r="E152">
         <v>93.14408643406807</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>3.116170030957264</v>
       </c>
@@ -2994,8 +3453,11 @@
       <c r="E153">
         <v>-23237.97664528477</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>1.028835181473879</v>
       </c>
@@ -3011,8 +3473,11 @@
       <c r="E154">
         <v>77.99653608215033</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>0.9669168621753812</v>
       </c>
@@ -3028,8 +3493,11 @@
       <c r="E155">
         <v>72.36959702757179</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>125.7841298368788</v>
       </c>
@@ -3045,8 +3513,11 @@
       <c r="E156">
         <v>-157328253724.065</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>77.98058411469607</v>
       </c>
@@ -3062,8 +3533,11 @@
       <c r="E157">
         <v>-22949515896.20563</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>119.364950649808</v>
       </c>
@@ -3079,8 +3553,11 @@
       <c r="E158">
         <v>-127459234646.44</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>0.9519373995089453</v>
       </c>
@@ -3096,8 +3573,11 @@
       <c r="E159">
         <v>85.65605332192956</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>1.093517005538956</v>
       </c>
@@ -3113,8 +3593,11 @@
       <c r="E160">
         <v>77.17136161637484</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>0.9563308864967797</v>
       </c>
@@ -3130,8 +3613,11 @@
       <c r="E161">
         <v>109.779899636777</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>8.315493038514418</v>
       </c>
@@ -3147,8 +3633,11 @@
       <c r="E162">
         <v>-2210582.016218477</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>1.107574772785051</v>
       </c>
@@ -3164,8 +3653,11 @@
       <c r="E163">
         <v>58.83984670651137</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>168.0800767205706</v>
       </c>
@@ -3181,8 +3673,11 @@
       <c r="E164">
         <v>-504340141268.815</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>0.9596005825563854</v>
       </c>
@@ -3198,8 +3693,11 @@
       <c r="E165">
         <v>94.66200468924819</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>1.007479574220497</v>
       </c>
@@ -3215,8 +3713,11 @@
       <c r="E166">
         <v>73.20583488655268</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>0.9803594588204332</v>
       </c>
@@ -3232,8 +3733,11 @@
       <c r="E167">
         <v>86.92133976382195</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>124.361766644851</v>
       </c>
@@ -3249,8 +3753,11 @@
       <c r="E168">
         <v>-150334321812.315</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>118.3794526798369</v>
       </c>
@@ -3266,8 +3773,11 @@
       <c r="E169">
         <v>-123288951104.815</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>66.52727365742192</v>
       </c>
@@ -3283,8 +3793,11 @@
       <c r="E170">
         <v>-12091023370.36188</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>1.123124259739439</v>
       </c>
@@ -3300,8 +3813,11 @@
       <c r="E171">
         <v>72.83017659795462</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>1.101375007576394</v>
       </c>
@@ -3317,8 +3833,11 @@
       <c r="E172">
         <v>80.05362543326794</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>1.178097198391328</v>
       </c>
@@ -3334,8 +3853,11 @@
       <c r="E173">
         <v>61.79277622562824</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>114.8350201165265</v>
       </c>
@@ -3351,8 +3873,11 @@
       <c r="E174">
         <v>-109096299388.565</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>0.9843955412615486</v>
       </c>
@@ -3368,8 +3893,11 @@
       <c r="E175">
         <v>58.71630781752049</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>1.076382229632687</v>
       </c>
@@ -3385,8 +3913,11 @@
       <c r="E176">
         <v>89.75182550263582</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>1.095775121818619</v>
       </c>
@@ -3402,8 +3933,11 @@
       <c r="E177">
         <v>59.4895627261418</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>1.029202459054195</v>
       </c>
@@ -3419,8 +3953,11 @@
       <c r="E178">
         <v>88.85160406542002</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>180.5136431688333</v>
       </c>
@@ -3436,8 +3973,11 @@
       <c r="E179">
         <v>-671595052615.8151</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>116.9686308147478</v>
       </c>
@@ -3453,8 +3993,11 @@
       <c r="E180">
         <v>-117479006565.065</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>1.159513737764336</v>
       </c>
@@ -3470,8 +4013,11 @@
       <c r="E181">
         <v>57.74287026983677</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>1.006775531115764</v>
       </c>
@@ -3487,8 +4033,11 @@
       <c r="E182">
         <v>51.00079620492636</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>67.20258297324909</v>
       </c>
@@ -3504,8 +4053,11 @@
       <c r="E183">
         <v>-12588831604.83844</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>0.898595088520949</v>
       </c>
@@ -3521,8 +4073,11 @@
       <c r="E184">
         <v>118.1663353354949</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>0.9981583761828144</v>
       </c>
@@ -3538,8 +4093,11 @@
       <c r="E185">
         <v>61.88751563292919</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>0.9146330742520057</v>
       </c>
@@ -3555,8 +4113,11 @@
       <c r="E186">
         <v>70.48552552101194</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>195.8896598816278</v>
       </c>
@@ -3572,8 +4133,11 @@
       <c r="E187">
         <v>-932495025031.8151</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>0.9842030773916441</v>
       </c>
@@ -3589,8 +4153,11 @@
       <c r="E188">
         <v>63.3047602162975</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>0.9998639534030209</v>
       </c>
@@ -3606,8 +4173,11 @@
       <c r="E189">
         <v>86.24698828768908</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>1.03993723640075</v>
       </c>
@@ -3623,8 +4193,11 @@
       <c r="E190">
         <v>82.72471140188156</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>62.0034590126613</v>
       </c>
@@ -3640,8 +4213,11 @@
       <c r="E191">
         <v>-9093497321.760319</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>167.897201645925</v>
       </c>
@@ -3657,8 +4233,11 @@
       <c r="E192">
         <v>-502099779034.565</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>181.1518778205362</v>
       </c>
@@ -3674,8 +4253,11 @@
       <c r="E193">
         <v>-681268123655.3151</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>0.8813775454437192</v>
       </c>
@@ -3691,8 +4273,11 @@
       <c r="E194">
         <v>107.5977880009729</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>0.8557139756443988</v>
       </c>
@@ -3708,8 +4293,11 @@
       <c r="E195">
         <v>107.9335508407372</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>118.3997674813529</v>
       </c>
@@ -3725,8 +4313,11 @@
       <c r="E196">
         <v>-123393180884.0025</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>125.8447899892615</v>
       </c>
@@ -3742,8 +4333,11 @@
       <c r="E197">
         <v>-157677818636.94</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>1.103253563842819</v>
       </c>
@@ -3759,8 +4353,11 @@
       <c r="E198">
         <v>31.54789154094635</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>133.264879386771</v>
       </c>
@@ -3776,8 +4373,11 @@
       <c r="E199">
         <v>-198500459906.94</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>1.041168863559676</v>
       </c>
@@ -3793,8 +4393,11 @@
       <c r="E200">
         <v>100.2533560456055</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>1.042776019454124</v>
       </c>
@@ -3810,8 +4413,11 @@
       <c r="E201">
         <v>52.00397660446345</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>1.0723661527158</v>
       </c>
@@ -3827,8 +4433,11 @@
       <c r="E202">
         <v>66.83731753987252</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>0.9891287902160526</v>
       </c>
@@ -3844,8 +4453,11 @@
       <c r="E203">
         <v>89.91027259689747</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>1.017631527004212</v>
       </c>
@@ -3861,8 +4473,11 @@
       <c r="E204">
         <v>75.78182248634278</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>0.9750344841932459</v>
       </c>
@@ -3878,8 +4493,11 @@
       <c r="E205">
         <v>117.8506134324986</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>1.097610830088614</v>
       </c>
@@ -3895,8 +4513,11 @@
       <c r="E206">
         <v>49.35682928425251</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>1.130230662619202</v>
       </c>
@@ -3912,8 +4533,11 @@
       <c r="E207">
         <v>52.01910812270819</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>1.090895190410814</v>
       </c>
@@ -3929,8 +4553,11 @@
       <c r="E208">
         <v>94.17563433808266</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>1.005913465090111</v>
       </c>
@@ -3946,8 +4573,11 @@
       <c r="E209">
         <v>87.57876589012324</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>227.5204560689611</v>
       </c>
@@ -3963,8 +4593,11 @@
       <c r="E210">
         <v>-1700172849211.315</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>120.7942699863517</v>
       </c>
@@ -3980,8 +4613,11 @@
       <c r="E211">
         <v>-133699655209.8775</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>1.130700397789528</v>
       </c>
@@ -3997,8 +4633,11 @@
       <c r="E212">
         <v>61.1619405211228</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>1.08923685296628</v>
       </c>
@@ -4014,8 +4653,11 @@
       <c r="E213">
         <v>59.3982593552488</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>1.006087912279167</v>
       </c>
@@ -4031,8 +4673,11 @@
       <c r="E214">
         <v>54.94483299416481</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>1.027381918183048</v>
       </c>
@@ -4048,8 +4693,11 @@
       <c r="E215">
         <v>79.32511193168341</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>0.8883805445445034</v>
       </c>
@@ -4065,8 +4713,11 @@
       <c r="E216">
         <v>95.08876411479889</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>1.010562347277599</v>
       </c>
@@ -4082,8 +4733,11 @@
       <c r="E217">
         <v>65.16184493762432</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>140.0979660804337</v>
       </c>
@@ -4099,8 +4753,11 @@
       <c r="E218">
         <v>-242676591636.69</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>7.575644721064975</v>
       </c>
@@ -4116,8 +4773,11 @@
       <c r="E219">
         <v>-1470137.087034517</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>1.077909354919868</v>
       </c>
@@ -4133,8 +4793,11 @@
       <c r="E220">
         <v>97.988575181486</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>1.121794859258442</v>
       </c>
@@ -4150,8 +4813,11 @@
       <c r="E221">
         <v>57.48410506409584</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>1.087932793154152</v>
       </c>
@@ -4167,8 +4833,11 @@
       <c r="E222">
         <v>73.74371331048189</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>114.369004623419</v>
       </c>
@@ -4184,8 +4853,11 @@
       <c r="E223">
         <v>-107317530343.94</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>1.112367063227765</v>
       </c>
@@ -4201,8 +4873,11 @@
       <c r="E224">
         <v>50.50759810072361</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>0.9757265620949747</v>
       </c>
@@ -4218,8 +4893,11 @@
       <c r="E225">
         <v>85.36569942397057</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>0.9562073795575259</v>
       </c>
@@ -4235,8 +4913,11 @@
       <c r="E226">
         <v>111.1155221225041</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>1.104843329811654</v>
       </c>
@@ -4252,8 +4933,11 @@
       <c r="E227">
         <v>60.81325892967163</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>1.045423842558151</v>
       </c>
@@ -4269,8 +4953,11 @@
       <c r="E228">
         <v>109.9813490049261</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>1.015518239792942</v>
       </c>
@@ -4286,8 +4973,11 @@
       <c r="E229">
         <v>86.03180023145853</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>0.9250796970132811</v>
       </c>
@@ -4303,8 +4993,11 @@
       <c r="E230">
         <v>108.6870341659802</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>1.088428102960449</v>
       </c>
@@ -4320,8 +5013,11 @@
       <c r="E231">
         <v>93.37105702471911</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>64.7445718236186</v>
       </c>
@@ -4337,8 +5033,11 @@
       <c r="E232">
         <v>-10831660251.19001</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>65.48614203383718</v>
       </c>
@@ -4354,8 +5053,11 @@
       <c r="E233">
         <v>-11340554801.29157</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>132.5147502167088</v>
       </c>
@@ -4371,8 +5073,11 @@
       <c r="E234">
         <v>-194032895441.44</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>1.244779094530323</v>
       </c>
@@ -4388,8 +5093,11 @@
       <c r="E235">
         <v>21.06777210396706</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>0.9964899073176344</v>
       </c>
@@ -4405,8 +5113,11 @@
       <c r="E236">
         <v>54.74597706508814</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>1.009878031699801</v>
       </c>
@@ -4422,8 +5133,11 @@
       <c r="E237">
         <v>71.98834331196724</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>3.529686958191974</v>
       </c>
@@ -4439,8 +5153,11 @@
       <c r="E238">
         <v>-43285.32449870693</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>0.9922669464435141</v>
       </c>
@@ -4456,8 +5173,11 @@
       <c r="E239">
         <v>80.32852593672453</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>1.018494727854974</v>
       </c>
@@ -4473,8 +5193,11 @@
       <c r="E240">
         <v>76.05587388438164</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>113.1039592932951</v>
       </c>
@@ -4490,8 +5213,11 @@
       <c r="E241">
         <v>-102637344842.7525</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>128.7020694670379</v>
       </c>
@@ -4507,8 +5233,11 @@
       <c r="E242">
         <v>-172529331979.94</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>1.147166963213152</v>
       </c>
@@ -4524,8 +5253,11 @@
       <c r="E243">
         <v>29.53880762916981</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>1.009897604166226</v>
       </c>
@@ -4541,8 +5273,11 @@
       <c r="E244">
         <v>46.26540417832314</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>1.065138942537011</v>
       </c>
@@ -4558,8 +5293,11 @@
       <c r="E245">
         <v>56.98602158439337</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>1.063237251707449</v>
       </c>
@@ -4575,8 +5313,11 @@
       <c r="E246">
         <v>50.71467342835842</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>133.9995336298947</v>
       </c>
@@ -4592,8 +5333,11 @@
       <c r="E247">
         <v>-202920150143.44</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>1.063833411475102</v>
       </c>
@@ -4609,8 +5353,11 @@
       <c r="E248">
         <v>103.2039571763295</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>1.10916655421174</v>
       </c>
@@ -4626,8 +5373,11 @@
       <c r="E249">
         <v>50.07711717349468</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>3.634363744265869</v>
       </c>
@@ -4643,8 +5393,11 @@
       <c r="E250">
         <v>-50207.7758793174</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>0.9944081125897526</v>
       </c>
@@ -4660,8 +5413,11 @@
       <c r="E251">
         <v>107.2122394019085</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>0.9659368307683565</v>
       </c>
@@ -4677,8 +5433,11 @@
       <c r="E252">
         <v>86.00136621532022</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>1.062050360767101</v>
       </c>
@@ -4694,8 +5453,11 @@
       <c r="E253">
         <v>59.66051301223217</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>115.0755558707177</v>
       </c>
@@ -4711,8 +5473,11 @@
       <c r="E254">
         <v>-110004671592.0025</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>3.897716209690586</v>
       </c>
@@ -4728,8 +5493,11 @@
       <c r="E255">
         <v>-70566.61857252705</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>4.004601834017265</v>
       </c>
@@ -4745,8 +5513,11 @@
       <c r="E256">
         <v>-80628.1308425008</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>1.096159547994945</v>
       </c>
@@ -4762,8 +5533,11 @@
       <c r="E257">
         <v>72.25561800462185</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>69.66465435260906</v>
       </c>
@@ -4779,8 +5553,11 @@
       <c r="E258">
         <v>-14556591982.90876</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>0.9986736771548657</v>
       </c>
@@ -4796,8 +5573,11 @@
       <c r="E259">
         <v>55.14773532611309</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>1.092385272463813</v>
       </c>
@@ -4813,8 +5593,11 @@
       <c r="E260">
         <v>55.47163542223154</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>172.9337232581307</v>
       </c>
@@ -4830,8 +5613,11 @@
       <c r="E261">
         <v>-565391012765.5651</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>0.9869455041352424</v>
       </c>
@@ -4847,8 +5633,11 @@
       <c r="E262">
         <v>63.53040672701775</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>1.00933389720791</v>
       </c>
@@ -4864,8 +5653,11 @@
       <c r="E263">
         <v>78.07426117968737</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>1.008784802957319</v>
       </c>
@@ -4881,8 +5673,11 @@
       <c r="E264">
         <v>50.89006684583603</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>1.014407012975948</v>
       </c>
@@ -4898,8 +5693,11 @@
       <c r="E265">
         <v>67.46965918553053</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>0.9688509988458485</v>
       </c>
@@ -4915,8 +5713,11 @@
       <c r="E266">
         <v>125.0848340825456</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>66.2091161689228</v>
       </c>
@@ -4932,8 +5733,11 @@
       <c r="E267">
         <v>-11852666845.78376</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>140.8785007726789</v>
       </c>
@@ -4949,8 +5753,11 @@
       <c r="E268">
         <v>-248143375070.69</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>59.56482445118839</v>
       </c>
@@ -4966,8 +5773,11 @@
       <c r="E269">
         <v>-7731465147.393131</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>1.143275967833163</v>
       </c>
@@ -4983,8 +5793,11 @@
       <c r="E270">
         <v>34.77491842818438</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="F270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>1.034473801109794</v>
       </c>
@@ -5000,8 +5813,11 @@
       <c r="E271">
         <v>87.46094868195235</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>109.1891245558728</v>
       </c>
@@ -5017,8 +5833,11 @@
       <c r="E272">
         <v>-89055264304.2525</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>1.115370408548949</v>
       </c>
@@ -5034,8 +5853,11 @@
       <c r="E273">
         <v>47.92520490896879</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>0.968861953853704</v>
       </c>
@@ -5051,8 +5873,11 @@
       <c r="E274">
         <v>87.47440995884119</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>0.8637632159279107</v>
       </c>
@@ -5068,8 +5893,11 @@
       <c r="E275">
         <v>127.8115439289528</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="F275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>1.047408355861826</v>
       </c>
@@ -5085,8 +5913,11 @@
       <c r="E276">
         <v>70.29247154158531</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>0.9199649368180367</v>
       </c>
@@ -5102,8 +5933,11 @@
       <c r="E277">
         <v>103.8006634810287</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="F277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>1.009675359275668</v>
       </c>
@@ -5119,8 +5953,11 @@
       <c r="E278">
         <v>48.94597459447562</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>1.154190283486848</v>
       </c>
@@ -5136,8 +5973,11 @@
       <c r="E279">
         <v>80.73324774068772</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>1.06645378895567</v>
       </c>
@@ -5153,8 +5993,11 @@
       <c r="E280">
         <v>32.44226373595177</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>0.9147439461870874</v>
       </c>
@@ -5170,8 +6013,11 @@
       <c r="E281">
         <v>98.17016148802816</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>1.083056901444533</v>
       </c>
@@ -5187,8 +6033,11 @@
       <c r="E282">
         <v>84.1035567359346</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>1.012353257005105</v>
       </c>
@@ -5204,8 +6053,11 @@
       <c r="E283">
         <v>63.50610664349972</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>99.30374149726502</v>
       </c>
@@ -5221,8 +6073,11 @@
       <c r="E284">
         <v>-60795349915.53376</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>0.9802474164346435</v>
       </c>
@@ -5238,8 +6093,11 @@
       <c r="E285">
         <v>73.30802096662103</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>59.69514299405436</v>
       </c>
@@ -5255,8 +6113,11 @@
       <c r="E286">
         <v>-7799058147.885319</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>139.636226988464</v>
       </c>
@@ -5272,8 +6133,11 @@
       <c r="E287">
         <v>-239446961355.315</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>120.3908599283365</v>
       </c>
@@ -5289,8 +6153,11 @@
       <c r="E288">
         <v>-131914711779.94</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>1.079198704419316</v>
       </c>
@@ -5306,8 +6173,11 @@
       <c r="E289">
         <v>90.29994933170258</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>161.9966533867424</v>
       </c>
@@ -5323,8 +6193,11 @@
       <c r="E290">
         <v>-434866476095.315</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>1.094309409362294</v>
       </c>
@@ -5340,8 +6213,11 @@
       <c r="E291">
         <v>59.99875718218266</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>140.9045407014127</v>
       </c>
@@ -5357,8 +6233,11 @@
       <c r="E292">
         <v>-248322383785.815</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>4.738580640717416</v>
       </c>
@@ -5374,8 +6253,11 @@
       <c r="E293">
         <v>-177676.8089793264</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>1.024204637388053</v>
       </c>
@@ -5391,8 +6273,11 @@
       <c r="E294">
         <v>130.5866739065665</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>1.078270095333156</v>
       </c>
@@ -5408,8 +6293,11 @@
       <c r="E295">
         <v>61.29517812144934</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>1.110166414919192</v>
       </c>
@@ -5425,8 +6313,11 @@
       <c r="E296">
         <v>43.95130886745631</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>1.284772701508885</v>
       </c>
@@ -5442,8 +6333,11 @@
       <c r="E297">
         <v>17.15589912098824</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>1.093592411178621</v>
       </c>
@@ -5459,8 +6353,11 @@
       <c r="E298">
         <v>57.7580038295406</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>0.9559677026068876</v>
       </c>
@@ -5476,8 +6373,11 @@
       <c r="E299">
         <v>85.10008141634046</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="F299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>1.07025629828145</v>
       </c>
@@ -5493,8 +6393,11 @@
       <c r="E300">
         <v>115.5713025392312</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="F300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>1.040933483930516</v>
       </c>
@@ -5510,8 +6413,11 @@
       <c r="E301">
         <v>73.21836628627955</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>1.1032902557906</v>
       </c>
@@ -5527,8 +6433,11 @@
       <c r="E302">
         <v>85.87498754871069</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>0.9581925901244475</v>
       </c>
@@ -5544,8 +6453,11 @@
       <c r="E303">
         <v>93.50646858897983</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="F303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>68.72351216855689</v>
       </c>
@@ -5561,8 +6473,11 @@
       <c r="E304">
         <v>-13783535255.39313</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>233.7101291612946</v>
       </c>
@@ -5578,8 +6493,11 @@
       <c r="E305">
         <v>-1893442569497.315</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>1.114787938736828</v>
       </c>
@@ -5595,8 +6513,11 @@
       <c r="E306">
         <v>56.50914058697401</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="F306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>0.949727933216252</v>
       </c>
@@ -5612,8 +6533,11 @@
       <c r="E307">
         <v>78.12816134703337</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>1.006596882865821</v>
       </c>
@@ -5629,8 +6553,11 @@
       <c r="E308">
         <v>71.18114267152725</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>1.065275789307833</v>
       </c>
@@ -5646,8 +6573,11 @@
       <c r="E309">
         <v>97.81956498933016</v>
       </c>
-    </row>
-    <row r="310" spans="1:5">
+      <c r="F309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>1.187606744317222</v>
       </c>
@@ -5663,8 +6593,11 @@
       <c r="E310">
         <v>48.77732256663023</v>
       </c>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>0.9884784800450443</v>
       </c>
@@ -5680,8 +6613,11 @@
       <c r="E311">
         <v>97.63842271503984</v>
       </c>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="F311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>55.41029263504026</v>
       </c>
@@ -5697,8 +6633,11 @@
       <c r="E312">
         <v>-5770197898.920475</v>
       </c>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>1.026670207660576</v>
       </c>
@@ -5714,8 +6653,11 @@
       <c r="E313">
         <v>58.2131523401755</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>0.9635517843275672</v>
       </c>
@@ -5731,8 +6673,11 @@
       <c r="E314">
         <v>69.78827699136912</v>
       </c>
-    </row>
-    <row r="315" spans="1:5">
+      <c r="F314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>119.9335236861385</v>
       </c>
@@ -5748,8 +6693,11 @@
       <c r="E315">
         <v>-129916826816.7525</v>
       </c>
-    </row>
-    <row r="316" spans="1:5">
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>1.015146828995249</v>
       </c>
@@ -5765,8 +6713,11 @@
       <c r="E316">
         <v>72.12554189425884</v>
       </c>
-    </row>
-    <row r="317" spans="1:5">
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>1.055176732453106</v>
       </c>
@@ -5782,8 +6733,11 @@
       <c r="E317">
         <v>93.90143012118517</v>
       </c>
-    </row>
-    <row r="318" spans="1:5">
+      <c r="F317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>0.9774146379552349</v>
       </c>
@@ -5799,8 +6753,11 @@
       <c r="E318">
         <v>74.92878704753696</v>
       </c>
-    </row>
-    <row r="319" spans="1:5">
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>53.30978180007527</v>
       </c>
@@ -5816,8 +6773,11 @@
       <c r="E319">
         <v>-4934889088.111881</v>
       </c>
-    </row>
-    <row r="320" spans="1:5">
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>67.07391465787794</v>
       </c>
@@ -5833,8 +6793,11 @@
       <c r="E320">
         <v>-12493982172.31501</v>
       </c>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>0.9802382108224899</v>
       </c>
@@ -5850,8 +6813,11 @@
       <c r="E321">
         <v>80.45976193112313</v>
       </c>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>1.080005937783724</v>
       </c>
@@ -5867,8 +6833,11 @@
       <c r="E322">
         <v>109.1556872041243</v>
       </c>
-    </row>
-    <row r="323" spans="1:5">
+      <c r="F322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>112.0924981104441</v>
       </c>
@@ -5884,8 +6853,11 @@
       <c r="E323">
         <v>-98985825525.065</v>
       </c>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>131.4343919126907</v>
       </c>
@@ -5901,8 +6873,11 @@
       <c r="E324">
         <v>-187789009074.315</v>
       </c>
-    </row>
-    <row r="325" spans="1:5">
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>143.0391976937169</v>
       </c>
@@ -5918,8 +6893,11 @@
       <c r="E325">
         <v>-263782317994.315</v>
       </c>
-    </row>
-    <row r="326" spans="1:5">
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>10.34524586961474</v>
       </c>
@@ -5935,8 +6913,11 @@
       <c r="E326">
         <v>-5648564.759006792</v>
       </c>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>0.9852439548353331</v>
       </c>
@@ -5952,8 +6933,11 @@
       <c r="E327">
         <v>72.87116509911596</v>
       </c>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>0.9823905244563402</v>
       </c>
@@ -5969,8 +6953,11 @@
       <c r="E328">
         <v>67.06428385389029</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>0.9845286888682807</v>
       </c>
@@ -5986,8 +6973,11 @@
       <c r="E329">
         <v>68.14279838887035</v>
       </c>
-    </row>
-    <row r="330" spans="1:5">
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>0.9725406654361741</v>
       </c>
@@ -6003,8 +6993,11 @@
       <c r="E330">
         <v>79.57287148621856</v>
       </c>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>0.9518177801364588</v>
       </c>
@@ -6020,8 +7013,11 @@
       <c r="E331">
         <v>85.55361619827329</v>
       </c>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>0.9655491762416157</v>
       </c>
@@ -6037,8 +7033,11 @@
       <c r="E332">
         <v>75.81437588346182</v>
       </c>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>1.120039154514673</v>
       </c>
@@ -6054,8 +7053,11 @@
       <c r="E333">
         <v>51.61067414146839</v>
       </c>
-    </row>
-    <row r="334" spans="1:5">
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>1.05200161398237</v>
       </c>
@@ -6071,8 +7073,11 @@
       <c r="E334">
         <v>72.79750908774315</v>
       </c>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>0.8917795581224652</v>
       </c>
@@ -6088,8 +7093,11 @@
       <c r="E335">
         <v>78.83452763644038</v>
       </c>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="F335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>96.25158851900034</v>
       </c>
@@ -6105,8 +7113,11 @@
       <c r="E336">
         <v>-53616265961.47126</v>
       </c>
-    </row>
-    <row r="337" spans="1:5">
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337">
         <v>4.331635521380605</v>
       </c>
@@ -6122,8 +7133,11 @@
       <c r="E337">
         <v>-117424.920889908</v>
       </c>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338">
         <v>136.6451526648167</v>
       </c>
@@ -6139,8 +7153,11 @@
       <c r="E338">
         <v>-219485560492.94</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339">
         <v>0.9915919079507347</v>
       </c>
@@ -6156,8 +7173,11 @@
       <c r="E339">
         <v>76.49190613490521</v>
       </c>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340">
         <v>67.347064442822</v>
       </c>
@@ -6173,8 +7193,11 @@
       <c r="E340">
         <v>-12699647434.57282</v>
       </c>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341">
         <v>129.2605923733641</v>
       </c>
@@ -6190,8 +7213,11 @@
       <c r="E341">
         <v>-175599875760.94</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342">
         <v>139.1423500786387</v>
       </c>
@@ -6207,8 +7233,11 @@
       <c r="E342">
         <v>-236119694827.815</v>
       </c>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343">
         <v>1.051185133200468</v>
       </c>
@@ -6224,8 +7253,11 @@
       <c r="E343">
         <v>71.12721795451819</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344">
         <v>104.4168152451195</v>
       </c>
@@ -6241,8 +7273,11 @@
       <c r="E344">
         <v>-74409372494.53375</v>
       </c>
-    </row>
-    <row r="345" spans="1:5">
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345">
         <v>1.169032750537244</v>
       </c>
@@ -6258,8 +7293,11 @@
       <c r="E345">
         <v>60.31834094834505</v>
       </c>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="F345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346">
         <v>132.9584310989676</v>
       </c>
@@ -6275,8 +7313,11 @@
       <c r="E346">
         <v>-196636774412.19</v>
       </c>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="F346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347">
         <v>66.35055254340259</v>
       </c>
@@ -6292,8 +7333,11 @@
       <c r="E347">
         <v>-11956316074.94001</v>
       </c>
-    </row>
-    <row r="348" spans="1:5">
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348">
         <v>67.72345129165157</v>
       </c>
@@ -6309,8 +7353,11 @@
       <c r="E348">
         <v>-12992393742.65876</v>
       </c>
-    </row>
-    <row r="349" spans="1:5">
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349">
         <v>183.4661929429961</v>
       </c>
@@ -6326,8 +7373,11 @@
       <c r="E349">
         <v>-716886860267.3151</v>
       </c>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350">
         <v>1.065159632922808</v>
       </c>
@@ -6343,8 +7393,11 @@
       <c r="E350">
         <v>51.85815714907824</v>
       </c>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351">
         <v>166.196428716003</v>
       </c>
@@ -6360,8 +7413,11 @@
       <c r="E351">
         <v>-481976227014.315</v>
       </c>
-    </row>
-    <row r="352" spans="1:5">
+      <c r="F351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352">
         <v>1.009744925953996</v>
       </c>
@@ -6377,8 +7433,11 @@
       <c r="E352">
         <v>117.0007484914082</v>
       </c>
-    </row>
-    <row r="353" spans="1:5">
+      <c r="F352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353">
         <v>1.015854584590041</v>
       </c>
@@ -6394,8 +7453,11 @@
       <c r="E353">
         <v>94.93613274258553</v>
       </c>
-    </row>
-    <row r="354" spans="1:5">
+      <c r="F353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354">
         <v>3.237464795779985</v>
       </c>
@@ -6411,8 +7473,11 @@
       <c r="E354">
         <v>-28005.04110997307</v>
       </c>
-    </row>
-    <row r="355" spans="1:5">
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355">
         <v>1.121268464086583</v>
       </c>
@@ -6428,8 +7493,11 @@
       <c r="E355">
         <v>79.20216327768742</v>
       </c>
-    </row>
-    <row r="356" spans="1:5">
+      <c r="F355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356">
         <v>0.9709711208415732</v>
       </c>
@@ -6445,8 +7513,11 @@
       <c r="E356">
         <v>88.54741104555308</v>
       </c>
-    </row>
-    <row r="357" spans="1:5">
+      <c r="F356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
       <c r="A357">
         <v>1.007719314201595</v>
       </c>
@@ -6462,8 +7533,11 @@
       <c r="E357">
         <v>76.04852307450949</v>
       </c>
-    </row>
-    <row r="358" spans="1:5">
+      <c r="F357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358">
         <v>62.98747696241225</v>
       </c>
@@ -6479,8 +7553,11 @@
       <c r="E358">
         <v>-9691814348.236881</v>
       </c>
-    </row>
-    <row r="359" spans="1:5">
+      <c r="F358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359">
         <v>122.7882173355012</v>
       </c>
@@ -6496,8 +7573,11 @@
       <c r="E359">
         <v>-142843038998.8775</v>
       </c>
-    </row>
-    <row r="360" spans="1:5">
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360">
         <v>235.4303329787207</v>
       </c>
@@ -6513,8 +7593,11 @@
       <c r="E360">
         <v>-1949740782127.315</v>
       </c>
-    </row>
-    <row r="361" spans="1:5">
+      <c r="F360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361">
         <v>4.053700009917364</v>
       </c>
@@ -6530,8 +7613,11 @@
       <c r="E361">
         <v>-85021.06419830906</v>
       </c>
-    </row>
-    <row r="362" spans="1:5">
+      <c r="F361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362">
         <v>1.038180432424947</v>
       </c>
@@ -6547,8 +7633,11 @@
       <c r="E362">
         <v>78.6929808245319</v>
       </c>
-    </row>
-    <row r="363" spans="1:5">
+      <c r="F362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363">
         <v>0.9315156821791675</v>
       </c>
@@ -6564,8 +7653,11 @@
       <c r="E363">
         <v>69.1845014118868</v>
       </c>
-    </row>
-    <row r="364" spans="1:5">
+      <c r="F363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364">
         <v>0.9799448495016101</v>
       </c>
@@ -6581,8 +7673,11 @@
       <c r="E364">
         <v>49.36659037184893</v>
       </c>
-    </row>
-    <row r="365" spans="1:5">
+      <c r="F364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365">
         <v>1.020052167938666</v>
       </c>
@@ -6598,8 +7693,11 @@
       <c r="E365">
         <v>76.69052626055657</v>
       </c>
-    </row>
-    <row r="366" spans="1:5">
+      <c r="F365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366">
         <v>155.5739860471494</v>
       </c>
@@ -6615,8 +7713,11 @@
       <c r="E366">
         <v>-369679025518.315</v>
       </c>
-    </row>
-    <row r="367" spans="1:5">
+      <c r="F366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367">
         <v>0.9843526176046754</v>
       </c>
@@ -6632,8 +7733,11 @@
       <c r="E367">
         <v>56.37174653124987</v>
       </c>
-    </row>
-    <row r="368" spans="1:5">
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368">
         <v>0.8912753765342956</v>
       </c>
@@ -6649,8 +7753,11 @@
       <c r="E368">
         <v>73.10702975702463</v>
       </c>
-    </row>
-    <row r="369" spans="1:5">
+      <c r="F368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369">
         <v>1.106002187525604</v>
       </c>
@@ -6666,8 +7773,11 @@
       <c r="E369">
         <v>70.82618687910019</v>
       </c>
-    </row>
-    <row r="370" spans="1:5">
+      <c r="F369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370">
         <v>0.966875706931992</v>
       </c>
@@ -6683,8 +7793,11 @@
       <c r="E370">
         <v>89.52187944066702</v>
       </c>
-    </row>
-    <row r="371" spans="1:5">
+      <c r="F370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371">
         <v>1.077552284486713</v>
       </c>
@@ -6700,8 +7813,11 @@
       <c r="E371">
         <v>33.27463553708969</v>
       </c>
-    </row>
-    <row r="372" spans="1:5">
+      <c r="F371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
       <c r="A372">
         <v>0.9850378643439335</v>
       </c>
@@ -6717,8 +7833,11 @@
       <c r="E372">
         <v>53.39534137261091</v>
       </c>
-    </row>
-    <row r="373" spans="1:5">
+      <c r="F372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
       <c r="A373">
         <v>125.9553139065637</v>
       </c>
@@ -6734,8 +7853,11 @@
       <c r="E373">
         <v>-158206770801.19</v>
       </c>
-    </row>
-    <row r="374" spans="1:5">
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374">
         <v>0.945301069947039</v>
       </c>
@@ -6751,8 +7873,11 @@
       <c r="E374">
         <v>68.94057103854595</v>
       </c>
-    </row>
-    <row r="375" spans="1:5">
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375">
         <v>1.016511652965605</v>
       </c>
@@ -6768,8 +7893,11 @@
       <c r="E375">
         <v>57.39054345202624</v>
       </c>
-    </row>
-    <row r="376" spans="1:5">
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
       <c r="A376">
         <v>129.1043476568873</v>
       </c>
@@ -6785,8 +7913,11 @@
       <c r="E376">
         <v>-174708485552.19</v>
       </c>
-    </row>
-    <row r="377" spans="1:5">
+      <c r="F376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377">
         <v>228.3957210193292</v>
       </c>
@@ -6802,8 +7933,11 @@
       <c r="E377">
         <v>-1726290048781.315</v>
       </c>
-    </row>
-    <row r="378" spans="1:5">
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
       <c r="A378">
         <v>1.039175825193884</v>
       </c>
@@ -6819,8 +7953,11 @@
       <c r="E378">
         <v>61.7716685221809</v>
       </c>
-    </row>
-    <row r="379" spans="1:5">
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379">
         <v>60.06758268988472</v>
       </c>
@@ -6836,8 +7973,11 @@
       <c r="E379">
         <v>-7996429972.744694</v>
       </c>
-    </row>
-    <row r="380" spans="1:5">
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
       <c r="A380">
         <v>1.040455190705734</v>
       </c>
@@ -6853,8 +7993,11 @@
       <c r="E380">
         <v>68.7605897696036</v>
       </c>
-    </row>
-    <row r="381" spans="1:5">
+      <c r="F380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381">
         <v>0.9880664221907837</v>
       </c>
@@ -6870,8 +8013,11 @@
       <c r="E381">
         <v>70.71494374287306</v>
       </c>
-    </row>
-    <row r="382" spans="1:5">
+      <c r="F381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
       <c r="A382">
         <v>1.100662605572694</v>
       </c>
@@ -6887,8 +8033,11 @@
       <c r="E382">
         <v>53.78469942373215</v>
       </c>
-    </row>
-    <row r="383" spans="1:5">
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383">
         <v>1.068954240318163</v>
       </c>
@@ -6904,8 +8053,11 @@
       <c r="E383">
         <v>91.39696236562907</v>
       </c>
-    </row>
-    <row r="384" spans="1:5">
+      <c r="F383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384">
         <v>1.127152647255421</v>
       </c>
@@ -6921,8 +8073,11 @@
       <c r="E384">
         <v>76.3450554744619</v>
       </c>
-    </row>
-    <row r="385" spans="1:5">
+      <c r="F384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385">
         <v>1.037801927547902</v>
       </c>
@@ -6938,8 +8093,11 @@
       <c r="E385">
         <v>58.4156407998222</v>
       </c>
-    </row>
-    <row r="386" spans="1:5">
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
       <c r="A386">
         <v>19.76179819087011</v>
       </c>
@@ -6955,8 +8113,11 @@
       <c r="E386">
         <v>-85601644.31061202</v>
       </c>
-    </row>
-    <row r="387" spans="1:5">
+      <c r="F386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
       <c r="A387">
         <v>162.9787130308145</v>
       </c>
@@ -6972,8 +8133,11 @@
       <c r="E387">
         <v>-445648068768.815</v>
       </c>
-    </row>
-    <row r="388" spans="1:5">
+      <c r="F387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
       <c r="A388">
         <v>1.096352552976333</v>
       </c>
@@ -6989,8 +8153,11 @@
       <c r="E388">
         <v>86.8658773512858</v>
       </c>
-    </row>
-    <row r="389" spans="1:5">
+      <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
       <c r="A389">
         <v>1.094884168205141</v>
       </c>
@@ -7006,8 +8173,11 @@
       <c r="E389">
         <v>78.1071850941795</v>
       </c>
-    </row>
-    <row r="390" spans="1:5">
+      <c r="F389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
       <c r="A390">
         <v>1.163773153207363</v>
       </c>
@@ -7023,8 +8193,11 @@
       <c r="E390">
         <v>47.82363291692911</v>
       </c>
-    </row>
-    <row r="391" spans="1:5">
+      <c r="F390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
       <c r="A391">
         <v>146.8425241777657</v>
       </c>
@@ -7040,8 +8213,11 @@
       <c r="E391">
         <v>-293116616677.19</v>
       </c>
-    </row>
-    <row r="392" spans="1:5">
+      <c r="F391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392">
         <v>1.09877985584437</v>
       </c>
@@ -7057,8 +8233,11 @@
       <c r="E392">
         <v>81.58955801886498</v>
       </c>
-    </row>
-    <row r="393" spans="1:5">
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
       <c r="A393">
         <v>0.9431247927072803</v>
       </c>
@@ -7074,8 +8253,11 @@
       <c r="E393">
         <v>75.80111655828534</v>
       </c>
-    </row>
-    <row r="394" spans="1:5">
+      <c r="F393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
       <c r="A394">
         <v>1.136657962591293</v>
       </c>
@@ -7091,8 +8273,11 @@
       <c r="E394">
         <v>49.36317330461918</v>
       </c>
-    </row>
-    <row r="395" spans="1:5">
+      <c r="F394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
       <c r="A395">
         <v>1.029517981757029</v>
       </c>
@@ -7108,8 +8293,11 @@
       <c r="E395">
         <v>75.00903381270348</v>
       </c>
-    </row>
-    <row r="396" spans="1:5">
+      <c r="F395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
       <c r="A396">
         <v>0.9413278841323347</v>
       </c>
@@ -7125,8 +8313,11 @@
       <c r="E396">
         <v>60.38207706299602</v>
       </c>
-    </row>
-    <row r="397" spans="1:5">
+      <c r="F396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
       <c r="A397">
         <v>0.9417629533693308</v>
       </c>
@@ -7142,8 +8333,11 @@
       <c r="E397">
         <v>97.20346054297863</v>
       </c>
-    </row>
-    <row r="398" spans="1:5">
+      <c r="F397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
       <c r="A398">
         <v>0.9422892398145788</v>
       </c>
@@ -7159,8 +8353,11 @@
       <c r="E398">
         <v>79.40774493900119</v>
       </c>
-    </row>
-    <row r="399" spans="1:5">
+      <c r="F398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
       <c r="A399">
         <v>1.017694551929421</v>
       </c>
@@ -7176,8 +8373,11 @@
       <c r="E399">
         <v>74.69820629668413</v>
       </c>
-    </row>
-    <row r="400" spans="1:5">
+      <c r="F399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
       <c r="A400">
         <v>1.077483451292064</v>
       </c>
@@ -7193,8 +8393,11 @@
       <c r="E400">
         <v>99.27894537013947</v>
       </c>
-    </row>
-    <row r="401" spans="1:5">
+      <c r="F400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
       <c r="A401">
         <v>3.569070704472111</v>
       </c>
@@ -7210,8 +8413,11 @@
       <c r="E401">
         <v>-45789.72906666386</v>
       </c>
-    </row>
-    <row r="402" spans="1:5">
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
       <c r="A402">
         <v>115.6184980595494</v>
       </c>
@@ -7227,8 +8433,11 @@
       <c r="E402">
         <v>-112110286094.1275</v>
       </c>
-    </row>
-    <row r="403" spans="1:5">
+      <c r="F402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403">
         <v>155.933526407868</v>
       </c>
@@ -7244,8 +8453,11 @@
       <c r="E403">
         <v>-373133680765.565</v>
       </c>
-    </row>
-    <row r="404" spans="1:5">
+      <c r="F403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
       <c r="A404">
         <v>120.2229547015924</v>
       </c>
@@ -7261,8 +8473,11 @@
       <c r="E404">
         <v>-131186066415.7525</v>
       </c>
-    </row>
-    <row r="405" spans="1:5">
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405">
         <v>1.066037261412065</v>
       </c>
@@ -7278,8 +8493,11 @@
       <c r="E405">
         <v>93.78190466624676</v>
       </c>
-    </row>
-    <row r="406" spans="1:5">
+      <c r="F405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
       <c r="A406">
         <v>173.4239593720727</v>
       </c>
@@ -7295,8 +8513,11 @@
       <c r="E406">
         <v>-571747426389.0651</v>
       </c>
-    </row>
-    <row r="407" spans="1:5">
+      <c r="F406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
       <c r="A407">
         <v>64.22230258937309</v>
       </c>
@@ -7312,8 +8533,11 @@
       <c r="E407">
         <v>-10484133394.07282</v>
       </c>
-    </row>
-    <row r="408" spans="1:5">
+      <c r="F407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
       <c r="A408">
         <v>1.003027759551022</v>
       </c>
@@ -7329,8 +8553,11 @@
       <c r="E408">
         <v>93.82393802565514</v>
       </c>
-    </row>
-    <row r="409" spans="1:5">
+      <c r="F408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
       <c r="A409">
         <v>1.044661268764033</v>
       </c>
@@ -7346,8 +8573,11 @@
       <c r="E409">
         <v>62.89797452700316</v>
       </c>
-    </row>
-    <row r="410" spans="1:5">
+      <c r="F409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410">
         <v>102.6765207839863</v>
       </c>
@@ -7363,8 +8593,11 @@
       <c r="E410">
         <v>-69545706627.44</v>
       </c>
-    </row>
-    <row r="411" spans="1:5">
+      <c r="F410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
       <c r="A411">
         <v>185.1760103700792</v>
       </c>
@@ -7380,8 +8613,11 @@
       <c r="E411">
         <v>-744014683794.3151</v>
       </c>
-    </row>
-    <row r="412" spans="1:5">
+      <c r="F411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
       <c r="A412">
         <v>0.910032328778172</v>
       </c>
@@ -7397,8 +8633,11 @@
       <c r="E412">
         <v>99.51720343393265</v>
       </c>
-    </row>
-    <row r="413" spans="1:5">
+      <c r="F412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
       <c r="A413">
         <v>4.497724489487226</v>
       </c>
@@ -7414,8 +8653,11 @@
       <c r="E413">
         <v>-138902.9144430696</v>
       </c>
-    </row>
-    <row r="414" spans="1:5">
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
       <c r="A414">
         <v>0.9922044641101682</v>
       </c>
@@ -7431,8 +8673,11 @@
       <c r="E414">
         <v>61.82564335179507</v>
       </c>
-    </row>
-    <row r="415" spans="1:5">
+      <c r="F414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
       <c r="A415">
         <v>132.4496432398538</v>
       </c>
@@ -7448,8 +8693,11 @@
       <c r="E415">
         <v>-193641427953.315</v>
       </c>
-    </row>
-    <row r="416" spans="1:5">
+      <c r="F415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
       <c r="A416">
         <v>1.003628121221531</v>
       </c>
@@ -7465,8 +8713,11 @@
       <c r="E416">
         <v>87.73198494178234</v>
       </c>
-    </row>
-    <row r="417" spans="1:5">
+      <c r="F416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
       <c r="A417">
         <v>0.9882942300185533</v>
       </c>
@@ -7482,8 +8733,11 @@
       <c r="E417">
         <v>70.57087485355316</v>
       </c>
-    </row>
-    <row r="418" spans="1:5">
+      <c r="F417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
       <c r="A418">
         <v>1.013646818213048</v>
       </c>
@@ -7499,8 +8753,11 @@
       <c r="E418">
         <v>96.39567220819174</v>
       </c>
-    </row>
-    <row r="419" spans="1:5">
+      <c r="F418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
       <c r="A419">
         <v>4.587526313734386</v>
       </c>
@@ -7516,8 +8773,11 @@
       <c r="E419">
         <v>-153289.5203843652</v>
       </c>
-    </row>
-    <row r="420" spans="1:5">
+      <c r="F419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
       <c r="A420">
         <v>0.9847075455895524</v>
       </c>
@@ -7533,8 +8793,11 @@
       <c r="E420">
         <v>77.60065463420926</v>
       </c>
-    </row>
-    <row r="421" spans="1:5">
+      <c r="F420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
       <c r="A421">
         <v>0.9470267696357872</v>
       </c>
@@ -7550,8 +8813,11 @@
       <c r="E421">
         <v>77.86264962566077</v>
       </c>
-    </row>
-    <row r="422" spans="1:5">
+      <c r="F421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
       <c r="A422">
         <v>1.068267678561639</v>
       </c>
@@ -7567,8 +8833,11 @@
       <c r="E422">
         <v>101.7655843780655</v>
       </c>
-    </row>
-    <row r="423" spans="1:5">
+      <c r="F422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
       <c r="A423">
         <v>180.8950819706626</v>
       </c>
@@ -7584,8 +8853,11 @@
       <c r="E423">
         <v>-677354110471.8151</v>
       </c>
-    </row>
-    <row r="424" spans="1:5">
+      <c r="F423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
       <c r="A424">
         <v>1.109471842173093</v>
       </c>
@@ -7601,8 +8873,11 @@
       <c r="E424">
         <v>76.74811944973646</v>
       </c>
-    </row>
-    <row r="425" spans="1:5">
+      <c r="F424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
       <c r="A425">
         <v>1.103487642337328</v>
       </c>
@@ -7618,8 +8893,11 @@
       <c r="E425">
         <v>61.3517092080134</v>
       </c>
-    </row>
-    <row r="426" spans="1:5">
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
       <c r="A426">
         <v>0.9517328722533449</v>
       </c>
@@ -7635,8 +8913,11 @@
       <c r="E426">
         <v>100.7133919173199</v>
       </c>
-    </row>
-    <row r="427" spans="1:5">
+      <c r="F426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
       <c r="A427">
         <v>63.25062892427621</v>
       </c>
@@ -7652,8 +8933,11 @@
       <c r="E427">
         <v>-9858825938.690006</v>
       </c>
-    </row>
-    <row r="428" spans="1:5">
+      <c r="F427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
       <c r="A428">
         <v>1.085067369864798</v>
       </c>
@@ -7669,8 +8953,11 @@
       <c r="E428">
         <v>102.8682809309381</v>
       </c>
-    </row>
-    <row r="429" spans="1:5">
+      <c r="F428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
       <c r="A429">
         <v>1.012604981494434</v>
       </c>
@@ -7686,8 +8973,11 @@
       <c r="E429">
         <v>73.93051974338471</v>
       </c>
-    </row>
-    <row r="430" spans="1:5">
+      <c r="F429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
       <c r="A430">
         <v>0.9880785186864148</v>
       </c>
@@ -7703,8 +8993,11 @@
       <c r="E430">
         <v>75.90948065978466</v>
       </c>
-    </row>
-    <row r="431" spans="1:5">
+      <c r="F430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
       <c r="A431">
         <v>1.073482423970947</v>
       </c>
@@ -7720,8 +9013,11 @@
       <c r="E431">
         <v>68.4443178386706</v>
       </c>
-    </row>
-    <row r="432" spans="1:5">
+      <c r="F431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
       <c r="A432">
         <v>1.073982610016998</v>
       </c>
@@ -7737,8 +9033,11 @@
       <c r="E432">
         <v>95.48804349315344</v>
       </c>
-    </row>
-    <row r="433" spans="1:5">
+      <c r="F432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
       <c r="A433">
         <v>0.9883722200814837</v>
       </c>
@@ -7754,8 +9053,11 @@
       <c r="E433">
         <v>72.88585703683077</v>
       </c>
-    </row>
-    <row r="434" spans="1:5">
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
       <c r="A434">
         <v>1.079081745045016</v>
       </c>
@@ -7771,8 +9073,11 @@
       <c r="E434">
         <v>102.1911956728715</v>
       </c>
-    </row>
-    <row r="435" spans="1:5">
+      <c r="F434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
       <c r="A435">
         <v>0.9860255383910491</v>
       </c>
@@ -7788,8 +9093,11 @@
       <c r="E435">
         <v>58.85754190993487</v>
       </c>
-    </row>
-    <row r="436" spans="1:5">
+      <c r="F435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
       <c r="A436">
         <v>62.78931792645576</v>
       </c>
@@ -7805,8 +9113,11 @@
       <c r="E436">
         <v>-9568736740.557194</v>
       </c>
-    </row>
-    <row r="437" spans="1:5">
+      <c r="F436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
       <c r="A437">
         <v>0.9800454506570049</v>
       </c>
@@ -7822,8 +9133,11 @@
       <c r="E437">
         <v>90.98525424909769</v>
       </c>
-    </row>
-    <row r="438" spans="1:5">
+      <c r="F437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
       <c r="A438">
         <v>67.4392660417258</v>
       </c>
@@ -7839,8 +9153,11 @@
       <c r="E438">
         <v>-12770333613.90876</v>
       </c>
-    </row>
-    <row r="439" spans="1:5">
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
       <c r="A439">
         <v>1.084037994705464</v>
       </c>
@@ -7856,8 +9173,11 @@
       <c r="E439">
         <v>93.94450934839426</v>
       </c>
-    </row>
-    <row r="440" spans="1:5">
+      <c r="F439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
       <c r="A440">
         <v>0.9648961784546977</v>
       </c>
@@ -7873,8 +9193,11 @@
       <c r="E440">
         <v>72.61945295942007</v>
       </c>
-    </row>
-    <row r="441" spans="1:5">
+      <c r="F440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
       <c r="A441">
         <v>137.6323815129303</v>
       </c>
@@ -7890,8 +9213,11 @@
       <c r="E441">
         <v>-226005693195.94</v>
       </c>
-    </row>
-    <row r="442" spans="1:5">
+      <c r="F441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
       <c r="A442">
         <v>1.079082213513317</v>
       </c>
@@ -7907,8 +9233,11 @@
       <c r="E442">
         <v>85.89354786139904</v>
       </c>
-    </row>
-    <row r="443" spans="1:5">
+      <c r="F442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
       <c r="A443">
         <v>67.96220661844805</v>
       </c>
@@ -7924,8 +9253,11 @@
       <c r="E443">
         <v>-13176383592.57282</v>
       </c>
-    </row>
-    <row r="444" spans="1:5">
+      <c r="F443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
       <c r="A444">
         <v>1.012035176622348</v>
       </c>
@@ -7941,8 +9273,11 @@
       <c r="E444">
         <v>82.4370048702973</v>
       </c>
-    </row>
-    <row r="445" spans="1:5">
+      <c r="F444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
       <c r="A445">
         <v>4.752544431989804</v>
       </c>
@@ -7958,8 +9293,11 @@
       <c r="E445">
         <v>-181796.7051265775</v>
       </c>
-    </row>
-    <row r="446" spans="1:5">
+      <c r="F445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
       <c r="A446">
         <v>1.035118935097723</v>
       </c>
@@ -7975,8 +9313,11 @@
       <c r="E446">
         <v>102.3919545398372</v>
       </c>
-    </row>
-    <row r="447" spans="1:5">
+      <c r="F446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
       <c r="A447">
         <v>3.651312061526198</v>
       </c>
@@ -7992,8 +9333,11 @@
       <c r="E447">
         <v>-51479.52109032261</v>
       </c>
-    </row>
-    <row r="448" spans="1:5">
+      <c r="F447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
       <c r="A448">
         <v>0.9849568930736945</v>
       </c>
@@ -8009,8 +9353,11 @@
       <c r="E448">
         <v>52.73038441550909</v>
       </c>
-    </row>
-    <row r="449" spans="1:5">
+      <c r="F448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
       <c r="A449">
         <v>1.115297343770167</v>
       </c>
@@ -8026,8 +9373,11 @@
       <c r="E449">
         <v>48.95531197500407</v>
       </c>
-    </row>
-    <row r="450" spans="1:5">
+      <c r="F449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
       <c r="A450">
         <v>1.067474255110753</v>
       </c>
@@ -8043,8 +9393,11 @@
       <c r="E450">
         <v>91.7369899959582</v>
       </c>
-    </row>
-    <row r="451" spans="1:5">
+      <c r="F450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
       <c r="A451">
         <v>0.8955422815974678</v>
       </c>
@@ -8060,8 +9413,11 @@
       <c r="E451">
         <v>98.86104004693209</v>
       </c>
-    </row>
-    <row r="452" spans="1:5">
+      <c r="F451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
       <c r="A452">
         <v>0.9614676957109061</v>
       </c>
@@ -8076,6 +9432,9 @@
       </c>
       <c r="E452">
         <v>90.42464993384658</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
